--- a/Chapter 6/matdig1.xlsx
+++ b/Chapter 6/matdig1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u02593084\Documents\GitHub\CBI310-version2\Chapter 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D77931B-739E-43DE-8CEA-CF37CDB4E271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB6EFF-76D3-4B24-B5B3-8CF0CC6025B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="13800" xr2:uid="{E0975FD2-D77B-4475-94C9-14E2C46EA979}"/>
+    <workbookView xWindow="-32666" yWindow="-7963" windowWidth="23040" windowHeight="13800" xr2:uid="{E0975FD2-D77B-4475-94C9-14E2C46EA979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B7">
         <v>0</v>
